--- a/Data/SoySD.xlsx
+++ b/Data/SoySD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1W1QiHxP4Mtuebc78lCqcsh1wq9wbLga6\USDA(OIM-SLS)\USDA Coop\Training\USDA_2021\Module 5\R Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1W1QiHxP4Mtuebc78lCqcsh1wq9wbLga6\USDA(OIM-SLS)\USDA Coop\Training\USDA_2021\USDA-VT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75368069-CF8A-4ADE-B8D4-F2399FFBD509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F2E7AD-1C5F-41CA-BC8E-9464E86E62DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" tabRatio="835" activeTab="2"/>
   </bookViews>
